--- a/data/input/absenteeism_data_4.xlsx
+++ b/data/input/absenteeism_data_4.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79372</v>
+        <v>61104</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Mendes</t>
+          <t>Sr. Pedro Henrique Porto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>2666.02</v>
+        <v>5087.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97588</v>
+        <v>62149</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elisa Jesus</t>
+          <t>Alexia Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>9225.6</v>
+        <v>11217.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43341</v>
+        <v>27007</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luigi Jesus</t>
+          <t>Esther Nunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>3073.13</v>
+        <v>10542.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9472</v>
+        <v>95098</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Vinicius Fernandes</t>
+          <t>Dr. Antônio Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>3852.31</v>
+        <v>7244.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20093</v>
+        <v>64366</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophie Barbosa</t>
+          <t>Ana Júlia Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>2729.54</v>
+        <v>3326.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34322</v>
+        <v>59991</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kevin Carvalho</t>
+          <t>Luana Dias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>3791.31</v>
+        <v>3977.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59892</v>
+        <v>5043</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bianca Freitas</t>
+          <t>Melissa Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>6678.59</v>
+        <v>6529.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18768</v>
+        <v>61831</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cauê da Cruz</t>
+          <t>Ryan Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>6212.85</v>
+        <v>9953.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8212</v>
+        <v>29598</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Levi Cardoso</t>
+          <t>Davi Lucas Araújo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>2682.95</v>
+        <v>3236.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79597</v>
+        <v>64505</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isabel das Neves</t>
+          <t>Heloísa Duarte</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>4456.24</v>
+        <v>12123.56</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_4.xlsx
+++ b/data/input/absenteeism_data_4.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61104</v>
+        <v>49956</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Pedro Henrique Porto</t>
+          <t>Breno Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>5087.7</v>
+        <v>11023.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62149</v>
+        <v>49724</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexia Alves</t>
+          <t>Emanuella Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,167 +523,167 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>11217.75</v>
+        <v>7197.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27007</v>
+        <v>99064</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esther Nunes</t>
+          <t>Pedro da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>10542.49</v>
+        <v>5944.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95098</v>
+        <v>77436</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Antônio Azevedo</t>
+          <t>Igor Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>7244.61</v>
+        <v>10510.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64366</v>
+        <v>56215</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Júlia Pires</t>
+          <t>Ana Beatriz Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>3326.42</v>
+        <v>3874.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59991</v>
+        <v>45319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luana Dias</t>
+          <t>Carlos Eduardo Dias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>3977.97</v>
+        <v>6340.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5043</v>
+        <v>72480</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Melissa Cardoso</t>
+          <t>Catarina Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>6529.96</v>
+        <v>9993.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>61831</v>
+        <v>97058</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ryan Rezende</t>
+          <t>Kaique Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>9953.9</v>
+        <v>7147.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29598</v>
+        <v>91243</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Lucas Araújo</t>
+          <t>Alícia Moraes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>3236.53</v>
+        <v>11422.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64505</v>
+        <v>33936</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heloísa Duarte</t>
+          <t>Yasmin Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>12123.56</v>
+        <v>2733.06</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_4.xlsx
+++ b/data/input/absenteeism_data_4.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49956</v>
+        <v>80342</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Breno Azevedo</t>
+          <t>Lorenzo Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>11023.82</v>
+        <v>11017.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49724</v>
+        <v>95702</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emanuella Moreira</t>
+          <t>Eduardo Santos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>7197.09</v>
+        <v>5177.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99064</v>
+        <v>5241</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pedro da Mata</t>
+          <t>Luigi Moreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>5944.47</v>
+        <v>12213.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77436</v>
+        <v>90240</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Igor Cardoso</t>
+          <t>Ana Beatriz da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>10510.87</v>
+        <v>3945.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56215</v>
+        <v>29672</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Beatriz Cardoso</t>
+          <t>Yago Viana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,60 +606,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>3874.15</v>
+        <v>7270.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45319</v>
+        <v>32722</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Dias</t>
+          <t>Sophie da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>6340.72</v>
+        <v>8588.889999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72480</v>
+        <v>55873</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Catarina Ramos</t>
+          <t>Ana Sophia da Paz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>9993.08</v>
+        <v>3002.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97058</v>
+        <v>63542</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kaique Rezende</t>
+          <t>Gabrielly Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>7147.18</v>
+        <v>10007.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91243</v>
+        <v>18005</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alícia Moraes</t>
+          <t>Yago das Neves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>11422.72</v>
+        <v>5347.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33936</v>
+        <v>61652</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yasmin Rocha</t>
+          <t>Srta. Bianca Campos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>2733.06</v>
+        <v>9526.15</v>
       </c>
     </row>
   </sheetData>
